--- a/заказы/статистика филиалы/2023/12,23/14,12,23 ЗПФ/дв 14,12,23 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/14,12,23 ЗПФ/дв 14,12,23 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\14,12,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\14,12,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229B534D-288A-4D67-9FF5-E6DCAD9A6456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21040A9C-EE6F-4C8E-B292-72EA91CDA166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,6 +233,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2913,7 +2915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W39" sqref="W39"/>
+      <selection pane="bottomLeft" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3350,7 +3352,7 @@
         <v>450</v>
       </c>
       <c r="AC7" s="22">
-        <f t="shared" ref="AC7:AC34" si="9">O7/Z7</f>
+        <f t="shared" ref="AC7:AC33" si="9">O7/Z7</f>
         <v>0</v>
       </c>
       <c r="AD7" s="2">
@@ -3413,7 +3415,7 @@
         <v>3.7</v>
       </c>
       <c r="AA8" s="22">
-        <f t="shared" ref="AA7:AA34" si="11">N8/Z8</f>
+        <f t="shared" ref="AA8:AA33" si="11">N8/Z8</f>
         <v>0</v>
       </c>
       <c r="AB8" s="2">
